--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024820.938326082</v>
+        <v>2022444.311378716</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078156</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>196.699784115679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>146.2200463431393</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>159.5163556738696</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>328.4528833267051</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>26.61297117991798</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>176.1146791460089</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>267.4083398772225</v>
       </c>
       <c r="D8" t="n">
-        <v>319.0746738590869</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>145.8284992587531</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377008</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673005</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137047</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>130.1208074460232</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643708034</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583159</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132711287</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.936238874645</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.274071128112</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.913505738324</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>2363.652677778257</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1973.513345802446</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4389,40 +4389,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>600.6438724554071</v>
+        <v>349.0604424885604</v>
       </c>
       <c r="C4" t="n">
-        <v>600.6438724554071</v>
+        <v>349.0604424885604</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1372.735081596272</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V4" t="n">
-        <v>1118.050593390385</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="W4" t="n">
-        <v>828.6334233534244</v>
+        <v>758.6984582168175</v>
       </c>
       <c r="X4" t="n">
-        <v>600.6438724554071</v>
+        <v>530.7089073188001</v>
       </c>
       <c r="Y4" t="n">
-        <v>600.6438724554071</v>
+        <v>530.7089073188001</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625612</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>918.4726736852006</v>
+        <v>1176.100419978353</v>
       </c>
       <c r="D5" t="n">
-        <v>560.2069750784501</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>560.2069750784501</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087292</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665546</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
@@ -4650,22 +4650,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2262.298126874723</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>827.4904500197511</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C8" t="n">
-        <v>458.5279330793393</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>136.2302827166252</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320764</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.229622059685</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y8" t="n">
-        <v>1214.090290083873</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>129.0834785909173</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>575.6256845144201</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495378</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2362.9309660677</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1386.561199187299</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1131.876710981412</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>842.459540944451</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>842.459540944451</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>621.6669618009208</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570816</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138397</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770301</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>634.3345878491232</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072698</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>366.9636532421608</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7020,19 +7020,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7172,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7625,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515143</v>
+        <v>224.3355197601771</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>199.7516311504064</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>15.64270034434945</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.35797727397613</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-2.230370853753821e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-1.773338340300088e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-4.281304257877447e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092699</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194368</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684188</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788533</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823374</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.6999868309282</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762386</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.43558426092514</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="14">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,40 +26424,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707354</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707369</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707341</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.42449670735</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707352</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707366</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707362</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707369</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-764870.0439423907</v>
+        <v>-764870.0439423905</v>
       </c>
       <c r="C6" t="n">
-        <v>349881.7396335289</v>
+        <v>349881.7396335286</v>
       </c>
       <c r="D6" t="n">
-        <v>349881.7396335289</v>
+        <v>349881.7396335283</v>
       </c>
       <c r="E6" t="n">
-        <v>-50502.77616215586</v>
+        <v>-50537.51408759149</v>
       </c>
       <c r="F6" t="n">
-        <v>456982.66546239</v>
+        <v>456947.9275369545</v>
       </c>
       <c r="G6" t="n">
-        <v>456982.6654623898</v>
+        <v>456947.9275369543</v>
       </c>
       <c r="H6" t="n">
-        <v>456982.66546239</v>
+        <v>456947.9275369543</v>
       </c>
       <c r="I6" t="n">
-        <v>456982.66546239</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="J6" t="n">
-        <v>289377.4876524075</v>
+        <v>289342.7497269719</v>
       </c>
       <c r="K6" t="n">
-        <v>456982.6654623902</v>
+        <v>456947.9275369544</v>
       </c>
       <c r="L6" t="n">
-        <v>456982.66546239</v>
+        <v>456947.9275369545</v>
       </c>
       <c r="M6" t="n">
-        <v>324375.3717334631</v>
+        <v>324340.6338080277</v>
       </c>
       <c r="N6" t="n">
-        <v>456982.66546239</v>
+        <v>456947.9275369544</v>
       </c>
       <c r="O6" t="n">
-        <v>456982.6654623899</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="P6" t="n">
-        <v>456982.66546239</v>
+        <v>456947.9275369544</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.784417372699</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>173.03131656279</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>20.08655370166485</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>126.7107984473311</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>26.23015829397781</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>380.2630745617935</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>110.1124749751917</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>97.86455189378506</v>
       </c>
       <c r="D8" t="n">
-        <v>35.60836776159601</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>140.3986548624476</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750467</v>
+        <v>474.0150488837094</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>590.9487307432803</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>78.62292123526687</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35261,19 +35261,19 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.8386996048307</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
